--- a/web/page/模板.xlsx
+++ b/web/page/模板.xlsx
@@ -29,22 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A:&lt;xxx&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B:&lt;haha&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:&lt;bean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:&lt;property&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>试题答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +86,22 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:&amp;lt;xxx&amp;gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:&amp;lt;haha&amp;gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:&amp;lt;bean&amp;gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:&amp;lt;property&amp;gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -462,59 +462,59 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
